--- a/Reportes/Originales/Medidas Desempeño Modelos.xlsx
+++ b/Reportes/Originales/Medidas Desempeño Modelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGM\Documents\Analytics\Proyectos\Proyecto2\Reportes\Originales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A921451-08B9-49A1-86EE-09E8F703AFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828071D2-BBA8-4C25-ABE5-B770A6210F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CCE9E41-0603-4D62-85FC-5CF86883BCC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
   <si>
     <t>TN</t>
   </si>
@@ -541,9 +541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2496C68-617D-4C0E-82E7-441FBD8E90BE}">
-  <dimension ref="B2:J57"/>
+  <dimension ref="B2:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:G63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1539,6 +1541,83 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
